--- a/taylor_scale_lit_review.xlsx
+++ b/taylor_scale_lit_review.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spann\Documents\Research\reynolds_scales_project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49029178-BCAE-4D63-A68F-916B2F217216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-25320" yWindow="-2025" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -38,9 +57,6 @@
   </si>
   <si>
     <r>
-      <t/>
-    </r>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -362,9 +378,6 @@
   </si>
   <si>
     <r>
-      <t/>
-    </r>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -492,9 +505,6 @@
     </r>
   </si>
   <si>
-    <t>Codes available?</t>
-  </si>
-  <si>
     <t>First determination of Taylor and correlation scale from multi-spacecraft measurements</t>
   </si>
   <si>
@@ -733,23 +743,26 @@
     <t>6 hours</t>
   </si>
   <si>
-    <t>Exponential fit up to ~3,000,000km, 1/e, integral</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Most exponential fits seem to fit to a much larger range than I've done</t>
+    <t>Codes/database available?</t>
+  </si>
+  <si>
+    <t>Lit review of Taylor scale papers</t>
+  </si>
+  <si>
+    <t>Integral, 1/e, exponential fit up to 2 x 1/e estimate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -790,6 +803,38 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -800,7 +845,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -821,16 +866,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,136 +883,137 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="16" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B4:V14" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
-  <autoFilter ref="B4:V14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B5:V15" totalsRowShown="0">
+  <autoFilter ref="B5:V15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="21">
-    <tableColumn name="Notes" id="1"/>
-    <tableColumn name="Paper" id="2"/>
-    <tableColumn name="Year" id="3"/>
-    <tableColumn name="Spacecraft" id="4"/>
-    <tableColumn name="Time period" id="5"/>
-    <tableColumn name="δt (s)" id="6"/>
-    <tableColumn name="interval size" id="7"/>
-    <tableColumn name="τmin (lags)" id="8"/>
-    <tableColumn name="τmax (lags)" id="9"/>
-    <tableColumn name="tmin (s)" id="10"/>
-    <tableColumn name="tmax (s)" id="11"/>
-    <tableColumn name="rmin (km)" id="12"/>
-    <tableColumn name="rmax (km)" id="13"/>
-    <tableColumn name="E(λT) (km)" id="14"/>
-    <tableColumn name="λT uncertainty method" id="15"/>
-    <tableColumn name="λC method" id="16"/>
-    <tableColumn name="E(λC) (km)" id="17"/>
-    <tableColumn name="λC uncertainty method" id="18"/>
-    <tableColumn name="Reff" id="19"/>
-    <tableColumn name="Spectral break (Hz)" id="20"/>
-    <tableColumn name="Codes available?" id="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Notes"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Paper"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Year"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Spacecraft"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Time period"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="δt (s)"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="interval size"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="τmin (lags)"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="τmax (lags)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="tmin (s)"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="tmax (s)"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="rmin (km)"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="rmax (km)"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="E(λT) (km)"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="λT uncertainty method"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="λC method"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="E(λC) (km)"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="λC uncertainty method"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Reff"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Spectral break (Hz)"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Codes/database available?"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -976,10 +1022,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1017,71 +1063,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1109,7 +1155,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1132,11 +1178,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1145,13 +1191,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1161,7 +1207,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1170,7 +1216,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1179,7 +1225,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1187,10 +1233,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1255,47 +1301,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="27" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="28" width="52.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="27" width="29.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="28" width="7.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="27" width="25.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="27" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="29" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="27" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="28" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="28" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="29" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="29" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="29" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="29" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="28" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="27" width="35.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="27" width="44.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="28" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="27" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="28" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="28" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="27" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" style="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35" style="27" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="46.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="3"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
@@ -1313,19 +1361,13 @@
       <c r="U1" s="2"/>
       <c r="V1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>400</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+    <row r="2" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="1"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="3"/>
@@ -1333,20 +1375,16 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="1"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    </row>
+    <row r="3" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="4">
-        <v>345</v>
+        <v>400</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="2"/>
@@ -1369,570 +1407,589 @@
       <c r="U3" s="2"/>
       <c r="V3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>345</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="33">
-      <c r="A5" s="1"/>
-      <c r="B5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2005</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="13">
-        <v>2478</v>
-      </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4">
-        <v>230000</v>
-      </c>
-      <c r="U5" s="2"/>
-      <c r="V5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33">
+      <c r="V5" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="9" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4">
-        <v>2007</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="14">
-        <v>30</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="4">
-        <v>3</v>
-      </c>
+        <v>2005</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="4">
-        <f>I6*G6</f>
-      </c>
+      <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="4">
-        <v>100</v>
-      </c>
-      <c r="N6" s="4">
-        <v>10000</v>
+      <c r="M6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="O6" s="13">
-        <v>2400</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="S6" s="1"/>
+      <c r="R6" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="S6" s="4"/>
       <c r="T6" s="4">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4">
-        <v>2009</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="10"/>
+        <v>2007</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="14">
         <v>30</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="3"/>
+      <c r="K7" s="4">
+        <f>I7*G7</f>
+        <v>90</v>
+      </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="13" t="s">
-        <v>39</v>
+      <c r="M7" s="4">
+        <v>100</v>
+      </c>
+      <c r="N7" s="4">
+        <v>10000</v>
+      </c>
+      <c r="O7" s="13">
+        <v>2400</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="T7" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="4">
+        <v>260000</v>
+      </c>
       <c r="U7" s="2"/>
       <c r="V7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4">
-        <v>2014</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>2009</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="10"/>
       <c r="G8" s="14">
-        <f>1/3</f>
+        <v>30</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="4">
-        <v>4</v>
-      </c>
-      <c r="J8" s="4">
-        <v>25</v>
-      </c>
-      <c r="K8" s="14">
-        <f>I8*G8</f>
-      </c>
-      <c r="L8" s="14">
-        <f>J8*G8</f>
-      </c>
-      <c r="M8" s="14">
-        <f>K8*$B$2</f>
-      </c>
-      <c r="N8" s="14">
-        <f>L8*$B$2</f>
-      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
       <c r="O8" s="13" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="U8" s="14">
-        <v>0.5</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
       <c r="V8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D9" s="4">
-        <v>2020</v>
-      </c>
-      <c r="E9" s="10" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="14">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="4">
+        <v>4</v>
+      </c>
+      <c r="J9" s="4">
         <v>25</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="14">
-        <v>60</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="19">
-        <v>2459.3</v>
+      <c r="K9" s="14">
+        <f>I9*G9</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="L9" s="14">
+        <f>J9*G9</f>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="M9" s="14">
+        <f>K9*$B$3</f>
+        <v>533.33333333333326</v>
+      </c>
+      <c r="N9" s="14">
+        <f>L9*$B$3</f>
+        <v>3333.333333333333</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="R9" s="4">
-        <v>1136000</v>
-      </c>
-      <c r="S9" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" s="14">
+        <v>0.5</v>
+      </c>
       <c r="V9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4">
         <v>2020</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="13">
-        <v>7000</v>
+      <c r="E10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="14">
+        <v>60</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="19">
+        <v>2459.3000000000002</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R10" s="4">
-        <v>320000</v>
+        <v>1136000</v>
       </c>
       <c r="S10" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="60">
+        <v>28</v>
+      </c>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="9" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D11" s="4">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="21">
-        <f>1/293</f>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="4">
-        <v>3</v>
-      </c>
-      <c r="J11" s="4">
-        <v>20</v>
-      </c>
-      <c r="K11" s="14">
-        <f>I11*G11</f>
-      </c>
-      <c r="L11" s="14">
-        <f>J11*G11</f>
-      </c>
-      <c r="M11" s="14">
-        <f>K11*$B$3</f>
-      </c>
-      <c r="N11" s="14">
-        <f>L11*$B$3</f>
-      </c>
-      <c r="O11" s="4">
-        <v>180</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="13">
+        <v>7000</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="R11" s="4">
-        <v>21000</v>
-      </c>
-      <c r="S11" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="T11" s="4">
-        <v>12000</v>
-      </c>
-      <c r="U11" s="4">
-        <v>2</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33">
+        <v>320000</v>
+      </c>
+      <c r="S11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D12" s="4">
         <v>2022</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="21">
+        <f>1/293</f>
+        <v>3.4129692832764505E-3</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="4">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4">
+        <v>20</v>
+      </c>
+      <c r="K12" s="14">
+        <f>I12*G12</f>
+        <v>1.0238907849829351E-2</v>
+      </c>
+      <c r="L12" s="14">
+        <f>J12*G12</f>
+        <v>6.8259385665529013E-2</v>
+      </c>
+      <c r="M12" s="14">
+        <f>K12*$B$4</f>
+        <v>3.5324232081911262</v>
+      </c>
+      <c r="N12" s="14">
+        <f>L12*$B$4</f>
+        <v>23.549488054607508</v>
+      </c>
+      <c r="O12" s="13">
+        <v>180</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="R12" s="4">
+        <v>21000</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="T12" s="4">
+        <v>12000</v>
+      </c>
+      <c r="U12" s="4">
+        <v>2</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="1" t="s">
+      <c r="Q13" s="1"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23" t="s">
+      <c r="D14" s="24">
+        <v>2022</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="24">
-        <v>2022</v>
-      </c>
-      <c r="E13" s="23" t="s">
+      <c r="F14" s="25"/>
+      <c r="G14" s="25">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="H14" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="H13" s="23" t="s">
+      <c r="I14" s="24">
+        <v>10</v>
+      </c>
+      <c r="J14" s="24">
+        <v>50</v>
+      </c>
+      <c r="K14" s="25">
+        <f>I14*G14</f>
+        <v>0.90909090909090917</v>
+      </c>
+      <c r="L14" s="25">
+        <f>J14*G14</f>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="M14" s="25">
+        <f>K14*$B$3</f>
+        <v>363.63636363636368</v>
+      </c>
+      <c r="N14" s="25">
+        <f>L14*$B$3</f>
+        <v>1818.1818181818182</v>
+      </c>
+      <c r="O14" s="24">
+        <v>3200</v>
+      </c>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="R14" s="26"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="24">
-        <v>10</v>
-      </c>
-      <c r="J13" s="24">
-        <v>50</v>
-      </c>
-      <c r="K13" s="25">
-        <f>I13*G13</f>
-      </c>
-      <c r="L13" s="25">
-        <f>J13*G13</f>
-      </c>
-      <c r="M13" s="25">
-        <f>K13*$B$2</f>
-      </c>
-      <c r="N13" s="25">
-        <f>L13*$B$2</f>
-      </c>
-      <c r="O13" s="24">
-        <v>3200</v>
-      </c>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="R13" s="26"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    </row>
+    <row r="15" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="1"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1940,18 +1997,16 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="2"/>
+      <c r="O15" s="6"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="Q15" s="1"/>
       <c r="R15" s="2"/>
       <c r="S15" s="1"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
@@ -1975,7 +2030,7 @@
       <c r="U16" s="2"/>
       <c r="V16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
@@ -1999,7 +2054,7 @@
       <c r="U17" s="2"/>
       <c r="V17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
@@ -2023,7 +2078,7 @@
       <c r="U18" s="2"/>
       <c r="V18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
@@ -2047,7 +2102,7 @@
       <c r="U19" s="2"/>
       <c r="V19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
@@ -2071,7 +2126,7 @@
       <c r="U20" s="2"/>
       <c r="V20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
@@ -2095,7 +2150,7 @@
       <c r="U21" s="2"/>
       <c r="V21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
@@ -2119,7 +2174,7 @@
       <c r="U22" s="2"/>
       <c r="V22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
@@ -2143,10 +2198,38 @@
       <c r="U23" s="2"/>
       <c r="V23" s="1"/>
     </row>
+    <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>